--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 9/9040/id.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 9/9040/id.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="15615" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,22 +39,22 @@
     <t>Stockage</t>
   </si>
   <si>
-    <t>Pully-Paudex</t>
-  </si>
-  <si>
-    <t>Belmont-Lutry</t>
-  </si>
-  <si>
     <t>Saint-Saphorin</t>
   </si>
   <si>
-    <t>Savigny-Forel</t>
-  </si>
-  <si>
     <t>Villette</t>
   </si>
   <si>
     <t>Région 9 Lavaux</t>
+  </si>
+  <si>
+    <t>Pully – Paudex</t>
+  </si>
+  <si>
+    <t>Belmont – Lutry</t>
+  </si>
+  <si>
+    <t>Savigny – Forel</t>
   </si>
 </sst>
 </file>
@@ -127,6 +127,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,165 +456,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:F8"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A8" sqref="A8"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="3">
-        <x:v>9020000000</x:v>
-      </x:c>
-      <x:c r="C2" s="4">
-        <x:v>9020</x:v>
-      </x:c>
-      <x:c r="D2" s="5">
-        <x:v>9000</x:v>
-      </x:c>
-      <x:c r="E2" s="6" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F2" s="7">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="2">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="3">
-        <x:v>9010000000</x:v>
-      </x:c>
-      <x:c r="C3" s="4">
-        <x:v>9010</x:v>
-      </x:c>
-      <x:c r="D3" s="5">
-        <x:v>9000</x:v>
-      </x:c>
-      <x:c r="E3" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F3" s="7">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="2">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="3">
-        <x:v>9030000000</x:v>
-      </x:c>
-      <x:c r="C4" s="4">
-        <x:v>9030</x:v>
-      </x:c>
-      <x:c r="D4" s="5">
-        <x:v>9000</x:v>
-      </x:c>
-      <x:c r="E4" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F4" s="7">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="2">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="3">
-        <x:v>9040000000</x:v>
-      </x:c>
-      <x:c r="C5" s="4">
-        <x:v>9040</x:v>
-      </x:c>
-      <x:c r="D5" s="5">
-        <x:v>9000</x:v>
-      </x:c>
-      <x:c r="E5" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F5" s="7">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="2">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B6" s="3">
-        <x:v>9050000000</x:v>
-      </x:c>
-      <x:c r="C6" s="4">
-        <x:v>9050</x:v>
-      </x:c>
-      <x:c r="D6" s="5">
-        <x:v>9000</x:v>
-      </x:c>
-      <x:c r="E6" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F6" s="7">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="2">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B7" s="3">
-        <x:v>9000000000</x:v>
-      </x:c>
-      <x:c r="C7" s="4">
-        <x:v>9000</x:v>
-      </x:c>
-      <x:c r="D7" s="5">
-        <x:v>9000</x:v>
-      </x:c>
-      <x:c r="E7" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F7" s="7">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="2"/>
-      <x:c r="B8" s="3"/>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <x:extLst>
-    <x:ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9020000000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9020</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9010000000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9010</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9030000000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9030</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9040000000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9040</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9050000000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9050</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9000000000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </x:ext>
-  </x:extLst>
-</x:worksheet>
+    </ext>
+  </extLst>
+</worksheet>
 </file>